--- a/tests/bin/OpenRefine_exports/2_JR1_16-17.xlsx
+++ b/tests/bin/OpenRefine_exports/2_JR1_16-17.xlsx
@@ -168,7 +168,7 @@
         </is>
       </c>
       <c r="J2" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="K2" t="n">
         <v>14.0</v>
@@ -221,7 +221,7 @@
         </is>
       </c>
       <c r="J3" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="K3" t="n">
         <v>3.0</v>
@@ -274,7 +274,7 @@
         </is>
       </c>
       <c r="J4" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="K4" t="n">
         <v>4.0</v>
@@ -327,7 +327,7 @@
         </is>
       </c>
       <c r="J5" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="K5" t="n">
         <v>28.0</v>
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="J6" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="K6" t="n">
         <v>27.0</v>
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="J7" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="K7" t="n">
         <v>12.0</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="J8" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="K8" t="n">
         <v>6.0</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="J9" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="J10" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="K10" t="n">
         <v>23.0</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J11" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="K11" t="n">
         <v>32.0</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="J12" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="K12" t="n">
         <v>5.0</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="J13" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="K13" t="n">
         <v>11.0</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="J14" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="K14" t="n">
         <v>3.0</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="J15" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="K15" t="n">
         <v>3.0</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="J16" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="K16" t="n">
         <v>5.0</v>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="J17" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="K17" t="n">
         <v>3.0</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="J18" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="J19" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="J20" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="K20" t="n">
         <v>24.0</v>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="J21" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="K21" t="n">
         <v>26.0</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="J22" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="K22" t="n">
         <v>24.0</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="J23" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="K23" t="n">
         <v>23.0</v>
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="J24" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="J25" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="K25" t="n">
         <v>4.0</v>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="J26" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="K26" t="n">
         <v>12.0</v>
